--- a/results.xlsx
+++ b/results.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaggau/deep_unsupervised_learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CFD2B6B-6423-7F45-B7C7-4C03D322ADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F81D60-78BB-A641-ABBB-E13EF5824DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{E14721AC-AA21-B34F-A860-F81BA4BC9C0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Counterfactual_results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Counterfactual_results!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED335AA-D799-984F-A1F7-BE3CD8E85EA0}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:H241"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,16 +1292,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>4.4700417518615696</v>
+        <v>5.2745084762573198</v>
       </c>
       <c r="G2">
-        <v>5.19783210754394</v>
+        <v>5.2793064117431596</v>
       </c>
       <c r="H2">
-        <v>2.5726567705472299</v>
+        <v>4.9192179044087698</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,16 +1318,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>2.7767667770385698</v>
+        <v>5.2049579620361301</v>
       </c>
       <c r="G3">
-        <v>2.95657181739807</v>
+        <v>5.2564787864684996</v>
       </c>
       <c r="H3">
-        <v>3.4639596939086901</v>
+        <v>4.9747468630472804</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,16 +1344,16 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>5.2745084762573198</v>
+        <v>4.4700417518615696</v>
       </c>
       <c r="G4">
-        <v>5.2793064117431596</v>
+        <v>5.19783210754394</v>
       </c>
       <c r="H4">
-        <v>4.9192179044087698</v>
+        <v>2.5726567705472299</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1370,16 +1370,16 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>5.2049579620361301</v>
+        <v>3.44491386413574</v>
       </c>
       <c r="G5">
-        <v>5.2564787864684996</v>
+        <v>4.9000511169433496</v>
       </c>
       <c r="H5">
-        <v>4.9747468630472804</v>
+        <v>3.23849074045817</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,16 +1396,16 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>-3.37408892810344E-2</v>
+        <v>2.7767667770385698</v>
       </c>
       <c r="G6">
-        <v>3.18209528923034</v>
+        <v>2.95657181739807</v>
       </c>
       <c r="H6">
-        <v>0.999841765811046</v>
+        <v>3.4639596939086901</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1422,16 +1422,16 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>3.44491386413574</v>
+        <v>-3.37408892810344E-2</v>
       </c>
       <c r="G7">
-        <v>4.9000511169433496</v>
+        <v>3.18209528923034</v>
       </c>
       <c r="H7">
-        <v>3.23849074045817</v>
+        <v>0.999841765811046</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1488,19 +1488,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -1514,42 +1514,42 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>2.4889621734619101</v>
+        <v>-1</v>
       </c>
       <c r="G11">
-        <v>3.1272282600402801</v>
+        <v>-1</v>
       </c>
       <c r="H11">
-        <v>3.4524516264597498</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1592,16 +1592,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -1618,19 +1618,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -1644,42 +1644,42 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16">
-        <v>2.4889621734619101</v>
+        <v>-1</v>
       </c>
       <c r="G16">
-        <v>4.7663540840148899</v>
+        <v>-1</v>
       </c>
       <c r="H16">
-        <v>2.9077519973119101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -1696,123 +1696,123 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>3.1434628963470401</v>
+        <v>5.1420741081237704</v>
       </c>
       <c r="G18">
-        <v>5.2529835700988698</v>
+        <v>5.09761238098144</v>
       </c>
       <c r="H18">
-        <v>2.1826559305191</v>
+        <v>4.8963967959086103</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>4.3079967498779297</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>4.6718430519104004</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>4.9428339004516602</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F20">
-        <v>3.1434628963470401</v>
+        <v>3.9365031719207701</v>
       </c>
       <c r="G20">
-        <v>5.3030123710632298</v>
+        <v>4.1238498687744096</v>
       </c>
       <c r="H20">
-        <v>2.3673233588536502</v>
+        <v>2.6974183320999101</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>2.3612060546875</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>2.3960893154144198</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>3.8453054428100502</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -1826,42 +1826,42 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>3.1434628963470401</v>
+        <v>-1</v>
       </c>
       <c r="G23">
-        <v>5.2825560569763104</v>
+        <v>-1</v>
       </c>
       <c r="H23">
-        <v>2.3528276681900002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -1878,16 +1878,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
@@ -1904,123 +1904,123 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>5.2139482498168901</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>5.2240424156188903</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>4.0332922140757201</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>5.2139482498168901</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5.2559823989868102</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>4.6931598981221496</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>4.7071690559387198</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5.2364916801452601</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>3.2979853947957301</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>4.7071690559387198</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>5.2188038825988698</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>3.28328307469685</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F30">
         <v>-1</v>
@@ -2034,19 +2034,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -2086,16 +2086,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -2112,94 +2112,94 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>5.1383142471313397</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>5.2350258827209402</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>5.1470219294230102</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>4.3059167861938397</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>5.0823979377746502</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>4.1077769597371399</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>4.0740952491760201</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>5.0599246025085396</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>4.1791599591572997</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -2242,16 +2242,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
@@ -2268,16 +2268,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
@@ -2294,16 +2294,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
@@ -2528,201 +2528,201 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="F50">
-        <v>2.3612060546875</v>
+        <v>5.2529668807983398</v>
       </c>
       <c r="G50">
-        <v>2.3960893154144198</v>
+        <v>5.2864060401916504</v>
       </c>
       <c r="H50">
-        <v>3.8453054428100502</v>
+        <v>5.2026995023091596</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F51">
-        <v>3.9365031719207701</v>
+        <v>5.1570458412170401</v>
       </c>
       <c r="G51">
-        <v>4.1238498687744096</v>
+        <v>5.2786746025085396</v>
       </c>
       <c r="H51">
-        <v>2.6974183320999101</v>
+        <v>5.1816590627034502</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="F52">
-        <v>-1</v>
+        <v>1.05173134803771</v>
       </c>
       <c r="G52">
-        <v>-1</v>
+        <v>4.3674283027648899</v>
       </c>
       <c r="H52">
-        <v>-1</v>
+        <v>2.0731960435708299</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F53">
-        <v>-1</v>
+        <v>2.51324642449617E-2</v>
       </c>
       <c r="G53">
-        <v>-1</v>
+        <v>-0.69097691774368197</v>
       </c>
       <c r="H53">
-        <v>-1</v>
+        <v>2.0595050013313601</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="F54">
-        <v>4.3079967498779297</v>
+        <v>-0.14313596487045199</v>
       </c>
       <c r="G54">
-        <v>4.6718430519104004</v>
+        <v>4.2834725379943803</v>
       </c>
       <c r="H54">
-        <v>4.9428339004516602</v>
+        <v>2.3026271859804699</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F55">
-        <v>-1</v>
+        <v>-0.14313596487045199</v>
       </c>
       <c r="G55">
-        <v>-1</v>
+        <v>4.5520758628845197</v>
       </c>
       <c r="H55">
-        <v>-1</v>
+        <v>2.2303974032401999</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="F56">
-        <v>5.1420741081237704</v>
+        <v>-0.14313596487045199</v>
       </c>
       <c r="G56">
-        <v>5.09761238098144</v>
+        <v>1.85201287269592</v>
       </c>
       <c r="H56">
-        <v>4.8963967959086103</v>
+        <v>2.6723950107892298</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F57">
         <v>-1</v>
@@ -2736,279 +2736,279 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F58">
-        <v>-1</v>
+        <v>4.1712679862976003</v>
       </c>
       <c r="G58">
-        <v>-1</v>
+        <v>5.3019676208495996</v>
       </c>
       <c r="H58">
-        <v>-1</v>
+        <v>2.06912531455357</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F59">
-        <v>-1</v>
+        <v>4.1712679862976003</v>
       </c>
       <c r="G59">
-        <v>-1</v>
+        <v>4.6927533149719203</v>
       </c>
       <c r="H59">
-        <v>-1</v>
+        <v>2.6775391896565699</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F60">
-        <v>-1</v>
+        <v>4.1712679862976003</v>
       </c>
       <c r="G60">
-        <v>-1</v>
+        <v>5.0021872520446697</v>
       </c>
       <c r="H60">
-        <v>-1</v>
+        <v>2.38543305794397</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="F61">
-        <v>-1</v>
+        <v>4.1712679862976003</v>
       </c>
       <c r="G61">
-        <v>-1</v>
+        <v>5.2713346481323198</v>
       </c>
       <c r="H61">
-        <v>-1</v>
+        <v>2.4057780106862299</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="F62">
-        <v>-1</v>
+        <v>4.1712679862976003</v>
       </c>
       <c r="G62">
-        <v>-1</v>
+        <v>5.2347497940063397</v>
       </c>
       <c r="H62">
-        <v>-1</v>
+        <v>1.7057820459206801</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F63">
-        <v>5.2374963760375897</v>
+        <v>4.1712679862976003</v>
       </c>
       <c r="G63">
-        <v>5.16029930114746</v>
+        <v>4.9300785064697203</v>
       </c>
       <c r="H63">
-        <v>3.94524236520131</v>
+        <v>2.7855060497919699</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F64">
-        <v>4.3402380943298304</v>
+        <v>3.3720111846923801</v>
       </c>
       <c r="G64">
-        <v>4.5949921607971103</v>
+        <v>5.1837229728698704</v>
       </c>
       <c r="H64">
-        <v>3.97397391001383</v>
+        <v>4.1147809028625399</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F65">
-        <v>-1</v>
+        <v>3.3720111846923801</v>
       </c>
       <c r="G65">
-        <v>-1</v>
+        <v>4.5613131523132298</v>
       </c>
       <c r="H65">
-        <v>-1</v>
+        <v>4.1442138353983502</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E66" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="F66">
-        <v>3.6102020740509002</v>
+        <v>5.1522097587585396</v>
       </c>
       <c r="G66">
-        <v>5.0658082962036097</v>
+        <v>5.3105487823486301</v>
       </c>
       <c r="H66">
-        <v>2.9593513011932302</v>
+        <v>3.5208228131135302</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="F67">
-        <v>3.6102020740509002</v>
+        <v>-1</v>
       </c>
       <c r="G67">
-        <v>4.9610600471496502</v>
+        <v>-1</v>
       </c>
       <c r="H67">
-        <v>3.6653598149617501</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="F68">
         <v>-1</v>
@@ -3022,42 +3022,42 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F69">
-        <v>4.9357218742370597</v>
+        <v>-1</v>
       </c>
       <c r="G69">
-        <v>5.1156082153320304</v>
+        <v>-1</v>
       </c>
       <c r="H69">
-        <v>5.0535898208618102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
@@ -3074,42 +3074,42 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E71" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="F71">
-        <v>4.9357218742370597</v>
+        <v>-1</v>
       </c>
       <c r="G71">
-        <v>5.1447811126708896</v>
+        <v>-1</v>
       </c>
       <c r="H71">
-        <v>4.5247461001078202</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
@@ -3126,588 +3126,588 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F73">
-        <v>4.9357218742370597</v>
+        <v>-1</v>
       </c>
       <c r="G73">
-        <v>5.0613870620727504</v>
+        <v>-1</v>
       </c>
       <c r="H73">
-        <v>5.0474389394124302</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="F74">
-        <v>4.1712679862976003</v>
+        <v>4.3603568077087402</v>
       </c>
       <c r="G74">
-        <v>5.3019676208495996</v>
+        <v>5.2782702445983798</v>
       </c>
       <c r="H74">
-        <v>2.06912531455357</v>
+        <v>3.5892410278320299</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="F75">
-        <v>4.1712679862976003</v>
+        <v>4.3603568077087402</v>
       </c>
       <c r="G75">
-        <v>4.6927533149719203</v>
+        <v>5.1982603073120099</v>
       </c>
       <c r="H75">
-        <v>2.6775391896565699</v>
+        <v>4.0050172011057503</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="F76">
-        <v>3.3720111846923801</v>
+        <v>-1</v>
       </c>
       <c r="G76">
-        <v>5.1837229728698704</v>
+        <v>-1</v>
       </c>
       <c r="H76">
-        <v>4.1147809028625399</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="F77">
-        <v>4.1712679862976003</v>
+        <v>-1</v>
       </c>
       <c r="G77">
-        <v>5.0021872520446697</v>
+        <v>-1</v>
       </c>
       <c r="H77">
-        <v>2.38543305794397</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F78">
-        <v>3.3720111846923801</v>
+        <v>-1</v>
       </c>
       <c r="G78">
-        <v>4.5613131523132298</v>
+        <v>-1</v>
       </c>
       <c r="H78">
-        <v>4.1442138353983502</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="F79">
-        <v>4.1712679862976003</v>
+        <v>-1</v>
       </c>
       <c r="G79">
-        <v>5.2713346481323198</v>
+        <v>-1</v>
       </c>
       <c r="H79">
-        <v>2.4057780106862299</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="F80">
-        <v>4.1712679862976003</v>
+        <v>-1</v>
       </c>
       <c r="G80">
-        <v>5.2347497940063397</v>
+        <v>-1</v>
       </c>
       <c r="H80">
-        <v>1.7057820459206801</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="F81">
-        <v>4.1712679862976003</v>
+        <v>-1</v>
       </c>
       <c r="G81">
-        <v>4.9300785064697203</v>
+        <v>-1</v>
       </c>
       <c r="H81">
-        <v>2.7855060497919699</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E82" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="F82">
-        <v>5.1601624488830504</v>
+        <v>5.2344856262206996</v>
       </c>
       <c r="G82">
-        <v>5.3080234527587802</v>
+        <v>5.2864217758178702</v>
       </c>
       <c r="H82">
-        <v>5.0043220520019496</v>
+        <v>5.2363610267639098</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="F83">
-        <v>5.2225046157836896</v>
+        <v>5.2246675491332999</v>
       </c>
       <c r="G83">
-        <v>5.2539525032043404</v>
+        <v>5.2532525062561</v>
       </c>
       <c r="H83">
-        <v>4.3696877956390301</v>
+        <v>3.82139945030212</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="F84">
-        <v>-1</v>
+        <v>5.2246675491332999</v>
       </c>
       <c r="G84">
-        <v>-1</v>
+        <v>5.2640113830566397</v>
       </c>
       <c r="H84">
-        <v>-1</v>
+        <v>5.1281792322794599</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="F85">
-        <v>-1</v>
+        <v>5.2246675491332999</v>
       </c>
       <c r="G85">
-        <v>-1</v>
+        <v>5.2696866989135698</v>
       </c>
       <c r="H85">
-        <v>-1</v>
+        <v>4.6963613828023201</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F86">
-        <v>-1</v>
+        <v>2.12411904335021</v>
       </c>
       <c r="G86">
-        <v>-1</v>
+        <v>4.7823743820190403</v>
       </c>
       <c r="H86">
-        <v>-1</v>
+        <v>2.9191230932871499</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E87" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F87">
-        <v>-1</v>
+        <v>2.12411904335021</v>
       </c>
       <c r="G87">
-        <v>-1</v>
+        <v>2.3845009803771902</v>
       </c>
       <c r="H87">
-        <v>-1</v>
+        <v>3.98014044761657</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="F88">
-        <v>-1</v>
+        <v>2.12411904335021</v>
       </c>
       <c r="G88">
-        <v>-1</v>
+        <v>4.6881074905395499</v>
       </c>
       <c r="H88">
-        <v>-1</v>
+        <v>3.4436894257863302</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E89" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="F89">
-        <v>-1</v>
+        <v>2.12411904335021</v>
       </c>
       <c r="G89">
-        <v>-1</v>
+        <v>2.2575044631957999</v>
       </c>
       <c r="H89">
-        <v>-1</v>
+        <v>3.1768480936686099</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="F90">
-        <v>4.3059167861938397</v>
+        <v>5.2533216476440403</v>
       </c>
       <c r="G90">
-        <v>5.0823979377746502</v>
+        <v>5.2772264480590803</v>
       </c>
       <c r="H90">
-        <v>4.1077769597371399</v>
+        <v>4.36340800921122</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="F91">
-        <v>-1</v>
+        <v>5.2533216476440403</v>
       </c>
       <c r="G91">
-        <v>-1</v>
+        <v>5.2720403671264604</v>
       </c>
       <c r="H91">
-        <v>-1</v>
+        <v>4.5755830605824697</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E92" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="F92">
-        <v>4.0740952491760201</v>
+        <v>5.2492489814758301</v>
       </c>
       <c r="G92">
-        <v>5.0599246025085396</v>
+        <v>5.2784910202026296</v>
       </c>
       <c r="H92">
-        <v>4.1791599591572997</v>
+        <v>4.6609535217285103</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="F93">
-        <v>-1</v>
+        <v>5.24880027770996</v>
       </c>
       <c r="G93">
-        <v>-1</v>
+        <v>5.2618937492370597</v>
       </c>
       <c r="H93">
-        <v>-1</v>
+        <v>3.9531544844309399</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E94" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="F94">
-        <v>5.1383142471313397</v>
+        <v>-1</v>
       </c>
       <c r="G94">
-        <v>5.2350258827209402</v>
+        <v>-1</v>
       </c>
       <c r="H94">
-        <v>5.1470219294230102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
@@ -3724,16 +3724,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D96" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
@@ -3750,16 +3750,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
@@ -3776,71 +3776,71 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="F98">
-        <v>2.8915426731109601</v>
+        <v>4.83127737045288</v>
       </c>
       <c r="G98">
-        <v>4.93357181549072</v>
+        <v>5.2564382553100497</v>
       </c>
       <c r="H98">
-        <v>4.3342595895131399</v>
+        <v>4.2015285491943297</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E99" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="F99">
-        <v>2.8915426731109601</v>
+        <v>4.83127737045288</v>
       </c>
       <c r="G99">
-        <v>4.7147464752197203</v>
+        <v>5.2513055801391602</v>
       </c>
       <c r="H99">
-        <v>4.31685090065002</v>
+        <v>4.82975927988688</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E100" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="F100">
         <v>-1</v>
@@ -3854,16 +3854,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D101" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E101" t="s">
         <v>26</v>
@@ -3880,19 +3880,19 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D102" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E102" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="F102">
         <v>-1</v>
@@ -3906,16 +3906,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D103" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E103" t="s">
         <v>26</v>
@@ -3932,42 +3932,42 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D104" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E104" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="F104">
-        <v>2.8915426731109601</v>
+        <v>-1</v>
       </c>
       <c r="G104">
-        <v>4.9369621276855398</v>
+        <v>-1</v>
       </c>
       <c r="H104">
-        <v>4.3202397823333696</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E105" t="s">
         <v>26</v>
@@ -3984,588 +3984,588 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E106" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="F106">
-        <v>-1</v>
+        <v>4.9481716156005797</v>
       </c>
       <c r="G106">
-        <v>-1</v>
+        <v>5.1933608055114702</v>
       </c>
       <c r="H106">
-        <v>-1</v>
+        <v>3.7689067522684701</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E107" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="F107">
-        <v>-0.14313596487045199</v>
+        <v>4.9481716156005797</v>
       </c>
       <c r="G107">
-        <v>4.2834725379943803</v>
+        <v>5.1586732864379803</v>
       </c>
       <c r="H107">
-        <v>2.3026271859804699</v>
+        <v>2.84924654165903</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E108" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="F108">
-        <v>5.2529668807983398</v>
+        <v>4.9481716156005797</v>
       </c>
       <c r="G108">
-        <v>5.2864060401916504</v>
+        <v>5.14216756820678</v>
       </c>
       <c r="H108">
-        <v>5.2026995023091596</v>
+        <v>2.96387767791748</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E109" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="F109">
-        <v>1.05173134803771</v>
+        <v>4.9481716156005797</v>
       </c>
       <c r="G109">
-        <v>4.3674283027648899</v>
+        <v>5.1403889656066797</v>
       </c>
       <c r="H109">
-        <v>2.0731960435708299</v>
+        <v>4.0586516062418596</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E110" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="F110">
-        <v>5.1570458412170401</v>
+        <v>4.9481716156005797</v>
       </c>
       <c r="G110">
-        <v>5.2786746025085396</v>
+        <v>4.9625034332275302</v>
       </c>
       <c r="H110">
-        <v>5.1816590627034502</v>
+        <v>4.1650952498117997</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E111" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="F111">
-        <v>2.51324642449617E-2</v>
+        <v>4.8751106262206996</v>
       </c>
       <c r="G111">
-        <v>-0.69097691774368197</v>
+        <v>5.2281060218811</v>
       </c>
       <c r="H111">
-        <v>2.0595050013313601</v>
+        <v>4.6389872233072902</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E112" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F112">
-        <v>-0.14313596487045199</v>
+        <v>-1</v>
       </c>
       <c r="G112">
-        <v>4.5520758628845197</v>
+        <v>-1</v>
       </c>
       <c r="H112">
-        <v>2.2303974032401999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D113" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E113" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F113">
-        <v>-0.14313596487045199</v>
+        <v>-1</v>
       </c>
       <c r="G113">
-        <v>1.85201287269592</v>
+        <v>-1</v>
       </c>
       <c r="H113">
-        <v>2.6723950107892298</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D114" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="F114">
-        <v>5.2344856262206996</v>
+        <v>3.1434628963470401</v>
       </c>
       <c r="G114">
-        <v>5.2864217758178702</v>
+        <v>5.2529835700988698</v>
       </c>
       <c r="H114">
-        <v>5.2363610267639098</v>
+        <v>2.1826559305191</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D115" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E115" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="F115">
-        <v>2.12411904335021</v>
+        <v>3.1434628963470401</v>
       </c>
       <c r="G115">
-        <v>4.7823743820190403</v>
+        <v>5.3030123710632298</v>
       </c>
       <c r="H115">
-        <v>2.9191230932871499</v>
+        <v>2.3673233588536502</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E116" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="F116">
-        <v>2.12411904335021</v>
+        <v>3.1434628963470401</v>
       </c>
       <c r="G116">
-        <v>2.3845009803771902</v>
+        <v>5.2825560569763104</v>
       </c>
       <c r="H116">
-        <v>3.98014044761657</v>
+        <v>2.3528276681900002</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E117" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="F117">
-        <v>5.2246675491332999</v>
+        <v>-1</v>
       </c>
       <c r="G117">
-        <v>5.2532525062561</v>
+        <v>-1</v>
       </c>
       <c r="H117">
-        <v>3.82139945030212</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E118" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="F118">
-        <v>5.2246675491332999</v>
+        <v>-1</v>
       </c>
       <c r="G118">
-        <v>5.2640113830566397</v>
+        <v>-1</v>
       </c>
       <c r="H118">
-        <v>5.1281792322794599</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E119" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="F119">
-        <v>2.12411904335021</v>
+        <v>-1</v>
       </c>
       <c r="G119">
-        <v>4.6881074905395499</v>
+        <v>-1</v>
       </c>
       <c r="H119">
-        <v>3.4436894257863302</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E120" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="F120">
-        <v>5.2246675491332999</v>
+        <v>-1</v>
       </c>
       <c r="G120">
-        <v>5.2696866989135698</v>
+        <v>-1</v>
       </c>
       <c r="H120">
-        <v>4.6963613828023201</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E121" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="F121">
-        <v>2.12411904335021</v>
+        <v>-1</v>
       </c>
       <c r="G121">
-        <v>2.2575044631957999</v>
+        <v>-1</v>
       </c>
       <c r="H121">
-        <v>3.1768480936686099</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C122" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="D122" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="F122">
-        <v>5.0475049018859801</v>
+        <v>4.8940844535827601</v>
       </c>
       <c r="G122">
-        <v>5.2610363960266104</v>
+        <v>5.0062508583068803</v>
       </c>
       <c r="H122">
-        <v>3.25858600934346</v>
+        <v>4.9815106391906703</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="D123" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E123" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="F123">
-        <v>4.9402470588684002</v>
+        <v>-1</v>
       </c>
       <c r="G123">
-        <v>5.1972079277038503</v>
+        <v>-1</v>
       </c>
       <c r="H123">
-        <v>3.71964406967163</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="D124" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E124" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="F124">
-        <v>4.9402470588684002</v>
+        <v>-1</v>
       </c>
       <c r="G124">
-        <v>5.2742753028869602</v>
+        <v>-1</v>
       </c>
       <c r="H124">
-        <v>3.6146938006083098</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E125" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="F125">
-        <v>1.8109430074691699</v>
+        <v>-1</v>
       </c>
       <c r="G125">
-        <v>-0.29630106687545699</v>
+        <v>-1</v>
       </c>
       <c r="H125">
-        <v>3.7846378882725999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C126" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="D126" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E126" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="F126">
-        <v>1.63709115982055</v>
+        <v>-1</v>
       </c>
       <c r="G126">
-        <v>-0.49783936142921398</v>
+        <v>-1</v>
       </c>
       <c r="H126">
-        <v>3.6159292856852199</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E127" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="F127">
-        <v>4.6473975181579501</v>
+        <v>-1</v>
       </c>
       <c r="G127">
-        <v>5.1776585578918404</v>
+        <v>-1</v>
       </c>
       <c r="H127">
-        <v>2.3178099493185602</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E128" t="s">
         <v>26</v>
@@ -4582,123 +4582,123 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="D129" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E129" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="F129">
-        <v>4.9402470588684002</v>
+        <v>-1</v>
       </c>
       <c r="G129">
-        <v>5.1935997009277299</v>
+        <v>-1</v>
       </c>
       <c r="H129">
-        <v>3.2733875910440999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="F130">
-        <v>1.8401049375534</v>
+        <v>2.4889621734619101</v>
       </c>
       <c r="G130">
-        <v>5.2453408241271902</v>
+        <v>3.1272282600402801</v>
       </c>
       <c r="H130">
-        <v>3.5144261121749798</v>
+        <v>3.4524516264597498</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="F131">
-        <v>5.1929736137390101</v>
+        <v>2.4889621734619101</v>
       </c>
       <c r="G131">
-        <v>5.3198771476745597</v>
+        <v>4.7663540840148899</v>
       </c>
       <c r="H131">
-        <v>3.7235155900319401</v>
+        <v>2.9077519973119101</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="F132">
-        <v>5.1343240737915004</v>
+        <v>-1</v>
       </c>
       <c r="G132">
-        <v>5.2663383483886701</v>
+        <v>-1</v>
       </c>
       <c r="H132">
-        <v>4.9806844393412204</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D133" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="F133">
         <v>-1</v>
@@ -4712,71 +4712,71 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="F134">
-        <v>2.7679643630981401</v>
+        <v>-1</v>
       </c>
       <c r="G134">
-        <v>5.2642331123351997</v>
+        <v>-1</v>
       </c>
       <c r="H134">
-        <v>2.0753948688507</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D135" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="F135">
-        <v>5.19828128814697</v>
+        <v>-1</v>
       </c>
       <c r="G135">
-        <v>5.2516841888427699</v>
+        <v>-1</v>
       </c>
       <c r="H135">
-        <v>3.3076896667480402</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D136" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F136">
         <v>-1</v>
@@ -4790,19 +4790,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="E137" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="F137">
         <v>-1</v>
@@ -4816,146 +4816,146 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C138" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D138" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E138" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="F138">
-        <v>4.9481716156005797</v>
+        <v>2.1805334091186501</v>
       </c>
       <c r="G138">
-        <v>5.1933608055114702</v>
+        <v>5.1028718948364196</v>
       </c>
       <c r="H138">
-        <v>3.7689067522684701</v>
+        <v>3.4744713306427002</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D139" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E139" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="F139">
-        <v>4.9481716156005797</v>
+        <v>-1</v>
       </c>
       <c r="G139">
-        <v>5.1586732864379803</v>
+        <v>-1</v>
       </c>
       <c r="H139">
-        <v>2.84924654165903</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D140" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E140" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="F140">
-        <v>4.9481716156005797</v>
+        <v>-1</v>
       </c>
       <c r="G140">
-        <v>5.14216756820678</v>
+        <v>-1</v>
       </c>
       <c r="H140">
-        <v>2.96387767791748</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E141" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="F141">
-        <v>4.9481716156005797</v>
+        <v>-1</v>
       </c>
       <c r="G141">
-        <v>5.1403889656066797</v>
+        <v>-1</v>
       </c>
       <c r="H141">
-        <v>4.0586516062418596</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E142" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="F142">
-        <v>4.8751106262206996</v>
+        <v>-1</v>
       </c>
       <c r="G142">
-        <v>5.2281060218811</v>
+        <v>-1</v>
       </c>
       <c r="H142">
-        <v>4.6389872233072902</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D143" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E143" t="s">
         <v>26</v>
@@ -4972,16 +4972,16 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D144" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E144" t="s">
         <v>26</v>
@@ -4998,97 +4998,97 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="D145" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E145" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="F145">
-        <v>4.9481716156005797</v>
+        <v>-1</v>
       </c>
       <c r="G145">
-        <v>4.9625034332275302</v>
+        <v>-1</v>
       </c>
       <c r="H145">
-        <v>4.1650952498117997</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C146" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D146" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E146" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="F146">
-        <v>5.1522097587585396</v>
+        <v>5.2374963760375897</v>
       </c>
       <c r="G146">
-        <v>5.3105487823486301</v>
+        <v>5.16029930114746</v>
       </c>
       <c r="H146">
-        <v>3.5208228131135302</v>
+        <v>3.94524236520131</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C147" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D147" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E147" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F147">
-        <v>-1</v>
+        <v>4.3402380943298304</v>
       </c>
       <c r="G147">
-        <v>-1</v>
+        <v>4.5949921607971103</v>
       </c>
       <c r="H147">
-        <v>-1</v>
+        <v>3.97397391001383</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C148" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D148" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E148" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="F148">
         <v>-1</v>
@@ -5102,16 +5102,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B149" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D149" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E149" t="s">
         <v>26</v>
@@ -5128,19 +5128,19 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B150" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C150" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D150" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E150" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F150">
         <v>-1</v>
@@ -5154,16 +5154,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C151" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D151" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E151" t="s">
         <v>26</v>
@@ -5180,16 +5180,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C152" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E152" t="s">
         <v>26</v>
@@ -5206,19 +5206,19 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B153" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C153" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D153" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E153" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F153">
         <v>-1</v>
@@ -5232,146 +5232,146 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C154" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D154" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E154" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="F154">
-        <v>5.2581429481506303</v>
+        <v>4.9357218742370597</v>
       </c>
       <c r="G154">
-        <v>5.3088517189025799</v>
+        <v>5.1156082153320304</v>
       </c>
       <c r="H154">
-        <v>5.1063857078552202</v>
+        <v>5.0535898208618102</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B155" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D155" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E155" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="F155">
-        <v>5.2783827781677202</v>
+        <v>4.9357218742370597</v>
       </c>
       <c r="G155">
-        <v>5.2810120582580504</v>
+        <v>5.1447811126708896</v>
       </c>
       <c r="H155">
-        <v>5.26744588216145</v>
+        <v>4.5247461001078202</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B156" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C156" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D156" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E156" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F156">
-        <v>5.2783827781677202</v>
+        <v>4.9357218742370597</v>
       </c>
       <c r="G156">
-        <v>5.2999792098998997</v>
+        <v>5.0613870620727504</v>
       </c>
       <c r="H156">
-        <v>4.7990119457244802</v>
+        <v>5.0474389394124302</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B157" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C157" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D157" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E157" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="F157">
-        <v>5.2783827781677202</v>
+        <v>3.6102020740509002</v>
       </c>
       <c r="G157">
-        <v>5.2832455635070801</v>
+        <v>5.0658082962036097</v>
       </c>
       <c r="H157">
-        <v>5.2268768946329702</v>
+        <v>2.9593513011932302</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C158" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D158" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E158" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="F158">
-        <v>5.2581429481506303</v>
+        <v>3.6102020740509002</v>
       </c>
       <c r="G158">
-        <v>5.30031013488769</v>
+        <v>4.9610600471496502</v>
       </c>
       <c r="H158">
-        <v>4.9463159243265702</v>
+        <v>3.6653598149617501</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D159" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E159" t="s">
         <v>26</v>
@@ -5388,45 +5388,45 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C160" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D160" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E160" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="F160">
-        <v>5.2581429481506303</v>
+        <v>-1</v>
       </c>
       <c r="G160">
-        <v>5.2973122596740696</v>
+        <v>-1</v>
       </c>
       <c r="H160">
-        <v>4.9881385167439696</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C161" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E161" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="F161">
         <v>-1</v>
@@ -5440,357 +5440,357 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B162" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C162" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D162" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="E162" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="F162">
-        <v>-1</v>
+        <v>4.6554141044616699</v>
       </c>
       <c r="G162">
-        <v>-1</v>
+        <v>5.1886835098266602</v>
       </c>
       <c r="H162">
-        <v>-1</v>
+        <v>4.4436466693878103</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B163" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C163" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D163" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="E163" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="F163">
-        <v>-1</v>
+        <v>3.3028538227081299</v>
       </c>
       <c r="G163">
-        <v>-1</v>
+        <v>5.2863731384277299</v>
       </c>
       <c r="H163">
-        <v>-1</v>
+        <v>2.8127798239390001</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B164" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C164" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D164" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="E164" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="F164">
-        <v>-1</v>
+        <v>2.8170411586761399</v>
       </c>
       <c r="G164">
-        <v>-1</v>
+        <v>5.2198081016540501</v>
       </c>
       <c r="H164">
-        <v>-1</v>
+        <v>2.7473225593566801</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C165" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D165" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="E165" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="F165">
-        <v>2.7606666088104199</v>
+        <v>2.2520523071289</v>
       </c>
       <c r="G165">
-        <v>5.2761635780334402</v>
+        <v>5.1341662406921298</v>
       </c>
       <c r="H165">
-        <v>3.38697735468546</v>
+        <v>1.92891331513722</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B166" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C166" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D166" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="E166" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="F166">
-        <v>2.7606666088104199</v>
+        <v>-1</v>
       </c>
       <c r="G166">
-        <v>5.2918434143066397</v>
+        <v>-1</v>
       </c>
       <c r="H166">
-        <v>3.4340938727060899</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C167" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D167" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="E167" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="F167">
-        <v>3.1339135169982901</v>
+        <v>-1</v>
       </c>
       <c r="G167">
-        <v>5.2674632072448704</v>
+        <v>-1</v>
       </c>
       <c r="H167">
-        <v>3.1467574040095001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C168" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D168" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="E168" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="F168">
-        <v>4.6822519302368102</v>
+        <v>-1</v>
       </c>
       <c r="G168">
-        <v>5.2943143844604403</v>
+        <v>-1</v>
       </c>
       <c r="H168">
-        <v>3.0363763173421199</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B169" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C169" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D169" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="E169" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="F169">
-        <v>4.8102865219116202</v>
+        <v>-1</v>
       </c>
       <c r="G169">
-        <v>5.2362613677978498</v>
+        <v>-1</v>
       </c>
       <c r="H169">
-        <v>5.0830853780110603</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B170" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C170" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D170" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E170" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="F170">
-        <v>4.3603568077087402</v>
+        <v>5.19828128814697</v>
       </c>
       <c r="G170">
-        <v>5.2782702445983798</v>
+        <v>5.2516841888427699</v>
       </c>
       <c r="H170">
-        <v>3.5892410278320299</v>
+        <v>3.3076896667480402</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C171" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D171" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E171" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="F171">
-        <v>4.3603568077087402</v>
+        <v>5.1929736137390101</v>
       </c>
       <c r="G171">
-        <v>5.1982603073120099</v>
+        <v>5.3198771476745597</v>
       </c>
       <c r="H171">
-        <v>4.0050172011057503</v>
+        <v>3.7235155900319401</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B172" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C172" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D172" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E172" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="F172">
-        <v>-1</v>
+        <v>5.1343240737915004</v>
       </c>
       <c r="G172">
-        <v>-1</v>
+        <v>5.2663383483886701</v>
       </c>
       <c r="H172">
-        <v>-1</v>
+        <v>4.9806844393412204</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B173" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C173" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D173" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E173" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="F173">
-        <v>-1</v>
+        <v>2.7679643630981401</v>
       </c>
       <c r="G173">
-        <v>-1</v>
+        <v>5.2642331123351997</v>
       </c>
       <c r="H173">
-        <v>-1</v>
+        <v>2.0753948688507</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C174" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D174" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E174" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="F174">
-        <v>-1</v>
+        <v>1.8401049375534</v>
       </c>
       <c r="G174">
-        <v>-1</v>
+        <v>5.2453408241271902</v>
       </c>
       <c r="H174">
-        <v>-1</v>
+        <v>3.5144261121749798</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C175" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D175" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E175" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="F175">
         <v>-1</v>
@@ -5804,16 +5804,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C176" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D176" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E176" t="s">
         <v>26</v>
@@ -5830,19 +5830,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C177" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D177" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E177" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="F177">
         <v>-1</v>
@@ -5856,94 +5856,94 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B178" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C178" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D178" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E178" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="F178">
-        <v>2.1805334091186501</v>
+        <v>2.8915426731109601</v>
       </c>
       <c r="G178">
-        <v>5.1028718948364196</v>
+        <v>4.93357181549072</v>
       </c>
       <c r="H178">
-        <v>3.4744713306427002</v>
+        <v>4.3342595895131399</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C179" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D179" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E179" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F179">
-        <v>-1</v>
+        <v>2.8915426731109601</v>
       </c>
       <c r="G179">
-        <v>-1</v>
+        <v>4.7147464752197203</v>
       </c>
       <c r="H179">
-        <v>-1</v>
+        <v>4.31685090065002</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B180" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C180" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D180" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E180" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F180">
-        <v>-1</v>
+        <v>2.8915426731109601</v>
       </c>
       <c r="G180">
-        <v>-1</v>
+        <v>4.9369621276855398</v>
       </c>
       <c r="H180">
-        <v>-1</v>
+        <v>4.3202397823333696</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C181" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D181" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E181" t="s">
         <v>26</v>
@@ -5960,16 +5960,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B182" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D182" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E182" t="s">
         <v>26</v>
@@ -5986,16 +5986,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B183" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C183" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D183" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E183" t="s">
         <v>26</v>
@@ -6012,16 +6012,16 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B184" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D184" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E184" t="s">
         <v>26</v>
@@ -6038,16 +6038,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B185" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C185" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D185" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E185" t="s">
         <v>26</v>
@@ -6064,198 +6064,198 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C186" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D186" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E186" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F186">
-        <v>-1</v>
+        <v>5.2648458480834899</v>
       </c>
       <c r="G186">
-        <v>-1</v>
+        <v>5.2844457626342702</v>
       </c>
       <c r="H186">
-        <v>-1</v>
+        <v>5.2686386108398402</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B187" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C187" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D187" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E187" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F187">
-        <v>4.83127737045288</v>
+        <v>5.2648458480834899</v>
       </c>
       <c r="G187">
-        <v>5.2564382553100497</v>
+        <v>5.28374767303466</v>
       </c>
       <c r="H187">
-        <v>4.2015285491943297</v>
+        <v>5.2503298123677498</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D188" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E188" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="F188">
-        <v>-1</v>
+        <v>5.2236471176147399</v>
       </c>
       <c r="G188">
-        <v>-1</v>
+        <v>5.2384033203125</v>
       </c>
       <c r="H188">
-        <v>-1</v>
+        <v>5.21815188725789</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C189" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D189" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E189" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F189">
-        <v>-1</v>
+        <v>5.2002549171447701</v>
       </c>
       <c r="G189">
-        <v>-1</v>
+        <v>5.269287109375</v>
       </c>
       <c r="H189">
-        <v>-1</v>
+        <v>5.1471740404764796</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C190" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D190" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E190" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="F190">
-        <v>-1</v>
+        <v>2.9867978096008301</v>
       </c>
       <c r="G190">
-        <v>-1</v>
+        <v>5.2264776229858398</v>
       </c>
       <c r="H190">
-        <v>-1</v>
+        <v>4.4839026133219404</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D191" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E191" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="F191">
-        <v>-1</v>
+        <v>2.9867978096008301</v>
       </c>
       <c r="G191">
-        <v>-1</v>
+        <v>5.1605463027954102</v>
       </c>
       <c r="H191">
-        <v>-1</v>
+        <v>2.3170039256413699</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C192" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D192" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E192" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="F192">
-        <v>4.83127737045288</v>
+        <v>-1</v>
       </c>
       <c r="G192">
-        <v>5.2513055801391602</v>
+        <v>-1</v>
       </c>
       <c r="H192">
-        <v>4.82975927988688</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D193" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E193" t="s">
         <v>26</v>
@@ -6272,172 +6272,172 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C194" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D194" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E194" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="F194">
-        <v>-1</v>
+        <v>5.2783827781677202</v>
       </c>
       <c r="G194">
-        <v>-1</v>
+        <v>5.2810120582580504</v>
       </c>
       <c r="H194">
-        <v>-1</v>
+        <v>5.26744588216145</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="B195" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C195" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D195" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E195" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="F195">
-        <v>-1</v>
+        <v>5.2783827781677202</v>
       </c>
       <c r="G195">
-        <v>-1</v>
+        <v>5.2999792098998997</v>
       </c>
       <c r="H195">
-        <v>-1</v>
+        <v>4.7990119457244802</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="B196" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C196" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D196" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E196" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="F196">
-        <v>-1</v>
+        <v>5.2783827781677202</v>
       </c>
       <c r="G196">
-        <v>-1</v>
+        <v>5.2832455635070801</v>
       </c>
       <c r="H196">
-        <v>-1</v>
+        <v>5.2268768946329702</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C197" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D197" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E197" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="F197">
-        <v>-1</v>
+        <v>5.2581429481506303</v>
       </c>
       <c r="G197">
-        <v>-1</v>
+        <v>5.3088517189025799</v>
       </c>
       <c r="H197">
-        <v>-1</v>
+        <v>5.1063857078552202</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C198" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D198" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E198" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="F198">
-        <v>-1</v>
+        <v>5.2581429481506303</v>
       </c>
       <c r="G198">
-        <v>-1</v>
+        <v>5.30031013488769</v>
       </c>
       <c r="H198">
-        <v>-1</v>
+        <v>4.9463159243265702</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C199" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D199" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E199" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="F199">
-        <v>4.8940844535827601</v>
+        <v>5.2581429481506303</v>
       </c>
       <c r="G199">
-        <v>5.0062508583068803</v>
+        <v>5.2973122596740696</v>
       </c>
       <c r="H199">
-        <v>4.9815106391906703</v>
+        <v>4.9881385167439696</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="B200" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C200" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D200" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E200" t="s">
         <v>26</v>
@@ -6454,19 +6454,19 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="B201" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="C201" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D201" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E201" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F201">
         <v>-1</v>
@@ -6480,201 +6480,201 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B202" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C202" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D202" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E202" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="F202">
-        <v>2.9867978096008301</v>
+        <v>4.8102865219116202</v>
       </c>
       <c r="G202">
-        <v>5.2264776229858398</v>
+        <v>5.2362613677978498</v>
       </c>
       <c r="H202">
-        <v>4.4839026133219404</v>
+        <v>5.0830853780110603</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C203" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D203" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E203" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="F203">
-        <v>5.2648458480834899</v>
+        <v>4.6822519302368102</v>
       </c>
       <c r="G203">
-        <v>5.2844457626342702</v>
+        <v>5.2943143844604403</v>
       </c>
       <c r="H203">
-        <v>5.2686386108398402</v>
+        <v>3.0363763173421199</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B204" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C204" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D204" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E204" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="F204">
-        <v>5.2648458480834899</v>
+        <v>3.1339135169982901</v>
       </c>
       <c r="G204">
-        <v>5.28374767303466</v>
+        <v>5.2674632072448704</v>
       </c>
       <c r="H204">
-        <v>5.2503298123677498</v>
+        <v>3.1467574040095001</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B205" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C205" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D205" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E205" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="F205">
-        <v>-1</v>
+        <v>2.7606666088104199</v>
       </c>
       <c r="G205">
-        <v>-1</v>
+        <v>5.2761635780334402</v>
       </c>
       <c r="H205">
-        <v>-1</v>
+        <v>3.38697735468546</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B206" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C206" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D206" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E206" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="F206">
-        <v>2.9867978096008301</v>
+        <v>2.7606666088104199</v>
       </c>
       <c r="G206">
-        <v>5.1605463027954102</v>
+        <v>5.2918434143066397</v>
       </c>
       <c r="H206">
-        <v>2.3170039256413699</v>
+        <v>3.4340938727060899</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B207" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C207" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D207" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E207" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F207">
-        <v>5.2236471176147399</v>
+        <v>-1</v>
       </c>
       <c r="G207">
-        <v>5.2384033203125</v>
+        <v>-1</v>
       </c>
       <c r="H207">
-        <v>5.21815188725789</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B208" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C208" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D208" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E208" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F208">
-        <v>5.2002549171447701</v>
+        <v>-1</v>
       </c>
       <c r="G208">
-        <v>5.269287109375</v>
+        <v>-1</v>
       </c>
       <c r="H208">
-        <v>5.1471740404764796</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C209" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D209" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E209" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="F209">
         <v>-1</v>
@@ -6688,331 +6688,331 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="B210" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="C210" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D210" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E210" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="F210">
-        <v>5.2139482498168901</v>
+        <v>5.0475049018859801</v>
       </c>
       <c r="G210">
-        <v>5.2240424156188903</v>
+        <v>5.2610363960266104</v>
       </c>
       <c r="H210">
-        <v>4.0332922140757201</v>
+        <v>3.25858600934346</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="B211" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="C211" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D211" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E211" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="F211">
-        <v>4.7071690559387198</v>
+        <v>4.9402470588684002</v>
       </c>
       <c r="G211">
-        <v>5.2364916801452601</v>
+        <v>5.1972079277038503</v>
       </c>
       <c r="H211">
-        <v>3.2979853947957301</v>
+        <v>3.71964406967163</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="C212" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D212" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E212" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="F212">
-        <v>-1</v>
+        <v>4.9402470588684002</v>
       </c>
       <c r="G212">
-        <v>-1</v>
+        <v>5.2742753028869602</v>
       </c>
       <c r="H212">
-        <v>-1</v>
+        <v>3.6146938006083098</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="B213" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="C213" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D213" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E213" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="F213">
-        <v>-1</v>
+        <v>4.9402470588684002</v>
       </c>
       <c r="G213">
-        <v>-1</v>
+        <v>5.1935997009277299</v>
       </c>
       <c r="H213">
-        <v>-1</v>
+        <v>3.2733875910440999</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="B214" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="C214" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D214" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E214" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="F214">
-        <v>5.2139482498168901</v>
+        <v>4.6473975181579501</v>
       </c>
       <c r="G214">
-        <v>5.2559823989868102</v>
+        <v>5.1776585578918404</v>
       </c>
       <c r="H214">
-        <v>4.6931598981221496</v>
+        <v>2.3178099493185602</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="B215" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="C215" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D215" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E215" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="F215">
-        <v>-1</v>
+        <v>1.8109430074691699</v>
       </c>
       <c r="G215">
-        <v>-1</v>
+        <v>-0.29630106687545699</v>
       </c>
       <c r="H215">
-        <v>-1</v>
+        <v>3.7846378882725999</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="B216" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="C216" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D216" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E216" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="F216">
-        <v>-1</v>
+        <v>1.63709115982055</v>
       </c>
       <c r="G216">
-        <v>-1</v>
+        <v>-0.49783936142921398</v>
       </c>
       <c r="H216">
-        <v>-1</v>
+        <v>3.6159292856852199</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="B217" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="C217" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D217" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="E217" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="F217">
-        <v>4.7071690559387198</v>
+        <v>-1</v>
       </c>
       <c r="G217">
-        <v>5.2188038825988698</v>
+        <v>-1</v>
       </c>
       <c r="H217">
-        <v>3.28328307469685</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B218" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C218" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D218" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E218" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F218">
-        <v>5.2533216476440403</v>
+        <v>4.1495165824890101</v>
       </c>
       <c r="G218">
-        <v>5.2772264480590803</v>
+        <v>5.1578617095947203</v>
       </c>
       <c r="H218">
-        <v>4.36340800921122</v>
+        <v>3.1465126673380501</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B219" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C219" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D219" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E219" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="F219">
-        <v>-1</v>
+        <v>3.49732446670532</v>
       </c>
       <c r="G219">
-        <v>-1</v>
+        <v>5.1875090599059996</v>
       </c>
       <c r="H219">
-        <v>-1</v>
+        <v>3.7645034790039</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B220" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C220" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D220" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E220" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F220">
-        <v>5.2533216476440403</v>
+        <v>3.49732446670532</v>
       </c>
       <c r="G220">
-        <v>5.2720403671264604</v>
+        <v>5.1392354965209899</v>
       </c>
       <c r="H220">
-        <v>4.5755830605824697</v>
+        <v>2.70466641585032</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B221" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C221" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D221" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E221" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="F221">
-        <v>-1</v>
+        <v>3.49732446670532</v>
       </c>
       <c r="G221">
-        <v>-1</v>
+        <v>5.23083066940307</v>
       </c>
       <c r="H221">
-        <v>-1</v>
+        <v>2.3561933040618799</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B222" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C222" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D222" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E222" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="F222">
         <v>-1</v>
@@ -7026,16 +7026,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B223" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C223" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D223" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E223" t="s">
         <v>26</v>
@@ -7052,149 +7052,149 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B224" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C224" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D224" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E224" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="F224">
-        <v>5.2492489814758301</v>
+        <v>-1</v>
       </c>
       <c r="G224">
-        <v>5.2784910202026296</v>
+        <v>-1</v>
       </c>
       <c r="H224">
-        <v>4.6609535217285103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B225" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C225" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D225" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E225" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="F225">
-        <v>5.24880027770996</v>
+        <v>-1</v>
       </c>
       <c r="G225">
-        <v>5.2618937492370597</v>
+        <v>-1</v>
       </c>
       <c r="H225">
-        <v>3.9531544844309399</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B226" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C226" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D226" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E226" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="F226">
-        <v>4.6554141044616699</v>
+        <v>-1</v>
       </c>
       <c r="G226">
-        <v>5.1886835098266602</v>
+        <v>-1</v>
       </c>
       <c r="H226">
-        <v>4.4436466693878103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B227" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C227" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D227" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E227" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="F227">
-        <v>2.8170411586761399</v>
+        <v>-1</v>
       </c>
       <c r="G227">
-        <v>5.2198081016540501</v>
+        <v>-1</v>
       </c>
       <c r="H227">
-        <v>2.7473225593566801</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B228" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C228" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D228" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E228" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="F228">
-        <v>3.3028538227081299</v>
+        <v>-1</v>
       </c>
       <c r="G228">
-        <v>5.2863731384277299</v>
+        <v>-1</v>
       </c>
       <c r="H228">
-        <v>2.8127798239390001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B229" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C229" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D229" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E229" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F229">
         <v>-1</v>
@@ -7208,19 +7208,19 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C230" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D230" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E230" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="F230">
         <v>-1</v>
@@ -7234,19 +7234,19 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B231" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C231" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D231" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E231" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="F231">
         <v>-1</v>
@@ -7260,16 +7260,16 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B232" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C232" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D232" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E232" t="s">
         <v>26</v>
@@ -7286,149 +7286,149 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B233" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C233" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D233" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E233" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="F233">
-        <v>2.2520523071289</v>
+        <v>-1</v>
       </c>
       <c r="G233">
-        <v>5.1341662406921298</v>
+        <v>-1</v>
       </c>
       <c r="H233">
-        <v>1.92891331513722</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="B234" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C234" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="D234" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="E234" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="F234">
-        <v>3.49732446670532</v>
+        <v>5.2225046157836896</v>
       </c>
       <c r="G234">
-        <v>5.1875090599059996</v>
+        <v>5.2539525032043404</v>
       </c>
       <c r="H234">
-        <v>3.7645034790039</v>
+        <v>4.3696877956390301</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="B235" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C235" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="D235" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="E235" t="s">
-        <v>275</v>
+        <v>102</v>
       </c>
       <c r="F235">
-        <v>3.49732446670532</v>
+        <v>5.1601624488830504</v>
       </c>
       <c r="G235">
-        <v>5.1392354965209899</v>
+        <v>5.3080234527587802</v>
       </c>
       <c r="H235">
-        <v>2.70466641585032</v>
+        <v>5.0043220520019496</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="B236" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C236" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="D236" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="E236" t="s">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="F236">
-        <v>4.1495165824890101</v>
+        <v>-1</v>
       </c>
       <c r="G236">
-        <v>5.1578617095947203</v>
+        <v>-1</v>
       </c>
       <c r="H236">
-        <v>3.1465126673380501</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="B237" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C237" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="D237" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="E237" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="F237">
-        <v>3.49732446670532</v>
+        <v>-1</v>
       </c>
       <c r="G237">
-        <v>5.23083066940307</v>
+        <v>-1</v>
       </c>
       <c r="H237">
-        <v>2.3561933040618799</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="B238" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C238" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="D238" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="E238" t="s">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="F238">
         <v>-1</v>
@@ -7442,16 +7442,16 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="B239" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C239" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="D239" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="E239" t="s">
         <v>26</v>
@@ -7468,16 +7468,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="B240" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C240" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="D240" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="E240" t="s">
         <v>26</v>
@@ -7494,16 +7494,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="B241" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C241" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="D241" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="E241" t="s">
         <v>26</v>
@@ -7519,7 +7519,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{55292455-6FE8-EF4E-AF80-0C3771FD758F}"/>
+  <autoFilter ref="A1:H1" xr:uid="{55292455-6FE8-EF4E-AF80-0C3771FD758F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H241">
+      <sortCondition descending="1" ref="A1:A241"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>